--- a/biology/Botanique/Heinrich_Friedrich_Link/Heinrich_Friedrich_Link.xlsx
+++ b/biology/Botanique/Heinrich_Friedrich_Link/Heinrich_Friedrich_Link.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Heinrich Friedrich Link (ou parfois Linck)[1] est un médecin, un botaniste et un  naturaliste allemand, né le 2 février 1767 à Hildesheim et mort le 1er janvier 1851 à Berlin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Heinrich Friedrich Link (ou parfois Linck) est un médecin, un botaniste et un  naturaliste allemand, né le 2 février 1767 à Hildesheim et mort le 1er janvier 1851 à Berlin.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Friedrich Link est très tôt influencé par son père, August Heinrich Link, pasteur, qui possède une collection d’histoire naturelle. Il étudie la médecine et les sciences naturelles à la Hannoverschen Landesuniversität de Göttingen et obtient son titre de docteur en 1789. Sa thèse s’intitule Flora der Felsgesteine rund um Göttingen. Il suit notamment les cours du fameux naturaliste Johann Friedrich Blumenbach. Il devient Privatdozent à Göttingen.
 En 1792, il devient le premier professeur du nouveau département de chimie, de zoologie et de botanique de l’université de Rostock. Durant cette période, il devient l’un des supporters de la théorie antiphlogistique d'Antoine Lavoisier et fait référence, dans ses cours, à l’oxygène à la place du phlogistique. Il est aussi partisan des essais de Jeremias Benjamin Richter pour utiliser les mathématiques en chimie ; Link introduit la stœchiométrie dans ses leçons. En 1806, il bâtit le premier laboratoire de Rostock dans le Seminargebäude.
@@ -553,7 +567,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Florae goettingensis specimen, sistens vegetabilia saxo calcareo propria (H. M. Grape, Göttingen, 1789).
 « Versuch einer Eintheilung der Fische nach den Zähnen », Magazin für das Neueste aus der Physik und Naturgeschichte, 6.Bd., 3.St., 1790, p. 28-38.
